--- a/네이버뉴스/data/102.xlsx
+++ b/네이버뉴스/data/102.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김 총리 “화이자 먹는 치료제 30만 명분 계약 마무리 단계”</t>
+          <t>휴일 검사소 긴 줄…한파에 운영시간 단축하기도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[속보] 박근혜 전 대통령 특별사면…한명숙 전 총리도 포함</t>
+          <t>축사악취는 커피박으로 …김천시,축사악취해결에 커피박 활용</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>경기도, 연말연시 관광숙박업계 방역수칙 특별점검</t>
+          <t>[단독] ‘이재명일병구하기’ 전남 당원들 나서다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[속보]위중증 1084명 연일 '역대 최다'…확진자 6233명·사망 56명</t>
+          <t>제주 오후 5시 현재 16명 신규 확진…학교·회의 집단감염 계속</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"임신 모르던 남편이 알까봐"…의류수거함에 신생아 버린 20대母</t>
+          <t>원주시 오전에만 37명 확진…누적 2963명</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,12 +548,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>한국어 배우러 온 일본 학생 39명...10주간 한국어수업</t>
+          <t>동백 눈꽃</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[속보]코로나 위중증 1084명...하루 만에 또 최다</t>
+          <t>“11년 사귄 여친, ‘혼전순결‘ 지켜줬는데...온라인서 만난 男 아이 임신했답니다”</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"힙합 크루에 잘 보이고 싶어" 마약 복용·판매 20대 래퍼 실형</t>
+          <t>[인사] 고용노동부 외</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>“살 빼려면 체질부터 개선해라”</t>
+          <t>[사진]반갑다 추위야...분주한 황태덕장</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>숭실사이버대학교, 미추홀구청과 신규 위탁교육협약 체결</t>
+          <t>충남도, 내년 330억원 투입 녹색인프라 확충</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:09</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[속보]오미크론 감염 16명 늘어 누적 262명</t>
+          <t>36% "중대재해법 업종별 구분 적용"···29% "면책조항도 신설해야"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:09</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,30 +656,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[속보] 오미크론 신규 확정 16명…누적 262명</t>
+          <t>충북 학생 등 코로나19 감염 계속…53명 추가 확진</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>특허청 인공지능특허연구회, 공무원 연구회 1위로 총리 표창</t>
+          <t>경남 최초로 창원에 ‘0세 전담 어린이집’ 생긴다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,12 +692,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[그래픽] 코로나19 금요일 신규 확진자 현황(24일)</t>
+          <t>‘제야의 종’ 타종 ‘오징어게임’ 오영수·양궁 안산 참여…온라인 진행</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -710,12 +710,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[속보]위중증 1084명…사흘째 역대 최다 경신</t>
+          <t>"작년 번돈의 10% 넘게 써야  중대재해법 대응"···산재 많은 운수업은 손놔</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -728,12 +728,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[속보]코로나 신규확진 6233명…사망 56명</t>
+          <t>오미크론 전국 확산 속 감염경로 불분명 사례도…위중증 환자는 엿새째 1000명대</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>백종원, 1회용컵 쓰다 빽다방서 쫓겨나…"대표님 나가주세요"</t>
+          <t>농막 아궁이에 불 지피고 잠자던 30대 4명 연기 마셔(종합)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:05</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,30 +764,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6233명 확진, 전주 대비 1201명 급감…위중증 1084명(상보)</t>
+          <t>정경심 전 교수, 자녀 입시비리 재판 후 쓰러져 병원 입원...뇌진탕 진단</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:05</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[속보] 6233명 확진, 전주 대비 1201명 ‘뚝’…위중증 1084명 '최다'</t>
+          <t>고용부 "직장내 괴롭힘에 극단 선택, 중대재해법 처벌대상"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:05</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>'재벌가 프로포폴' 병원장 항소심…검찰, 징역 7년 구형</t>
+          <t>호남·제주 대설특보…제주 산지 30cm 이상 눈</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:04</t>
         </is>
       </c>
       <c r="C21" t="n">
